--- a/TS Jatai Working/Ghana Sandhi/Alopam & Lopam table.xlsx
+++ b/TS Jatai Working/Ghana Sandhi/Alopam & Lopam table.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
   <si>
     <t>alopam</t>
   </si>
@@ -321,6 +321,208 @@
         <rFont val="BRH Devanagari Extra"/>
       </rPr>
       <t xml:space="preserve">lÉqÉç </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.14.4, </t>
+  </si>
+  <si>
+    <t>1.2.3.1</t>
+  </si>
+  <si>
+    <t>6.1.4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iuÉqÉç </t>
+  </si>
+  <si>
+    <t>4.2.9.4</t>
+  </si>
+  <si>
+    <t>5.7.6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xÉÔrÉåïÿ </t>
+  </si>
+  <si>
+    <t>4.7.13.4</t>
+  </si>
+  <si>
+    <t>5.7.7.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rÉålÉþ </t>
+  </si>
+  <si>
+    <t>5.7.7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.2.3 </t>
+  </si>
+  <si>
+    <t>5.1.2.6</t>
+  </si>
+  <si>
+    <t>ASèkuÉþlÉÈ</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>alÉå</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>alÉå</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>alÉå</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>ÎxqÉ³Éç</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>xÉ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve">kÉxjÉåÿ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uÉÉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve">eÉÏ </t>
     </r>
   </si>
 </sst>
@@ -349,13 +551,6 @@
       <color theme="1"/>
       <name val="BRH Malayalam Extra"/>
       <family val="4"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
@@ -390,6 +585,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -516,47 +719,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,340 +1043,593 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="27.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="18" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="18"/>
+    <col min="7" max="7" width="27.42578125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36.75" x14ac:dyDescent="1">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="8">
-        <v>34</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7">
+        <v>34</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="36.75" x14ac:dyDescent="1">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8">
-        <v>34</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7">
+        <v>34</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36.75" x14ac:dyDescent="1">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8">
-        <v>34</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7">
+        <v>34</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36.75" x14ac:dyDescent="1">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8">
-        <v>34</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36.75" x14ac:dyDescent="1">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="8">
-        <v>34</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36.75" x14ac:dyDescent="1">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="8">
-        <v>34</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7">
+        <v>34</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36.75" x14ac:dyDescent="1">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="8">
-        <v>34</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7">
+        <v>34</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36.75" x14ac:dyDescent="1">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="8">
-        <v>34</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7">
+        <v>34</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36.75" x14ac:dyDescent="1">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="8">
-        <v>34</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7">
+        <v>34</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36.75" x14ac:dyDescent="1">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="8">
-        <v>34</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7">
+        <v>34</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36.75" x14ac:dyDescent="1">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="8">
-        <v>34</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="7">
+        <v>34</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36.75" x14ac:dyDescent="1">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="8">
-        <v>34</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7">
+        <v>34</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="7">
+        <v>34</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7">
+        <v>34</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7">
+        <v>34</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7">
+        <v>34</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="7">
+        <v>34</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7">
+        <v>34</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7">
+        <v>34</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7">
+        <v>34</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="7">
+        <v>34</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="7">
+        <v>34</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7">
+        <v>34</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>19</v>
       </c>
     </row>

--- a/TS Jatai Working/Ghana Sandhi/Alopam & Lopam table.xlsx
+++ b/TS Jatai Working/Ghana Sandhi/Alopam & Lopam table.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="83">
   <si>
     <t>alopam</t>
   </si>
@@ -191,18 +191,9 @@
     <t>1.6.6.2</t>
   </si>
   <si>
-    <t>AalÉåÿ</t>
-  </si>
-  <si>
-    <t>mÉuÉþxuÉ</t>
-  </si>
-  <si>
     <t>AÉýrÉÑýSÉïÈ</t>
   </si>
   <si>
-    <t>AýalÉåý |</t>
-  </si>
-  <si>
     <r>
       <t>Mü</t>
     </r>
@@ -524,13 +515,443 @@
       </rPr>
       <t xml:space="preserve">eÉÏ </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>ÍkÉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve">¢üÉuÉç.hhÉþÈ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>MüÉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>ËU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>wÉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve">qÉç </t>
+    </r>
+  </si>
+  <si>
+    <t>1.5.11.4</t>
+  </si>
+  <si>
+    <t>7.4.19.4</t>
+  </si>
+  <si>
+    <t>4.1.2.3</t>
+  </si>
+  <si>
+    <t>5.7.25.1</t>
+  </si>
+  <si>
+    <r>
+      <t>xÉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>kÉxjÉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve">qÉç </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AÉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve">iqÉÉ </t>
+    </r>
+  </si>
+  <si>
+    <t>5.1.10.1</t>
+  </si>
+  <si>
+    <t>5.5.6.2</t>
+  </si>
+  <si>
+    <t>4.2.4.4</t>
+  </si>
+  <si>
+    <t>4.1.10.1</t>
+  </si>
+  <si>
+    <t>rÉiÉç</t>
+  </si>
+  <si>
+    <t>our word file ref</t>
+  </si>
+  <si>
+    <t>iÉÉÈ</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>xrÉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.1.4.3</t>
+    </r>
+  </si>
+  <si>
+    <t>lopam</t>
+  </si>
+  <si>
+    <t>qÉÉ</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve">liÉËUþ¤ÉqÉç </t>
+    </r>
+  </si>
+  <si>
+    <t>AlÉÑþ</t>
+  </si>
+  <si>
+    <r>
+      <t>iÉå</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>4.2.10.1</t>
+  </si>
+  <si>
+    <t>4.2.10.2</t>
+  </si>
+  <si>
+    <t>4.2.10.3</t>
+  </si>
+  <si>
+    <t>as chanted by pundits</t>
+  </si>
+  <si>
+    <t>1.5.6.4,</t>
+  </si>
+  <si>
+    <t>4.1.2.5</t>
+  </si>
+  <si>
+    <r>
+      <t>iuÉÉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t>alÉå</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Misl. - Chap 4</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="BRH Malayalam Extra"/>
+        <family val="4"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="BRH Devanagari Extra"/>
+      </rPr>
+      <t xml:space="preserve">xqÉå </t>
+    </r>
+  </si>
+  <si>
+    <t>uÉcÉïþÈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AýalÉåý </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +1013,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="BRH Devanagari Extra"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -719,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -731,28 +1177,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -763,6 +1197,42 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,65 +1513,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="18" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="18"/>
-    <col min="7" max="7" width="27.42578125" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="18"/>
+    <col min="3" max="3" width="17.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="14" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="21"/>
+    <col min="7" max="7" width="27.42578125" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>16</v>
+      <c r="G2" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36.75" x14ac:dyDescent="1">
@@ -1112,18 +1582,18 @@
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7">
-        <v>34</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="19">
+        <v>34</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1135,18 +1605,18 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7">
-        <v>34</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="19">
+        <v>34</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1158,18 +1628,18 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7">
-        <v>34</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="19">
+        <v>34</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1181,18 +1651,18 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7">
-        <v>34</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="19">
+        <v>34</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1207,15 +1677,15 @@
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7">
-        <v>34</v>
-      </c>
-      <c r="G7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="19">
+        <v>34</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1230,15 +1700,15 @@
         <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7">
-        <v>34</v>
-      </c>
-      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="19">
+        <v>34</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1253,15 +1723,15 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7">
-        <v>34</v>
-      </c>
-      <c r="G9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="19">
+        <v>34</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1273,18 +1743,18 @@
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7">
-        <v>34</v>
-      </c>
-      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="19">
+        <v>34</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1296,87 +1766,87 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7">
-        <v>34</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="19">
+        <v>34</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="1.3">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="7">
-        <v>34</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="36.75" x14ac:dyDescent="1">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="19">
+        <v>34</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="1.3">
+      <c r="A13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="7">
-        <v>34</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="C13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="23">
+        <v>34</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="1.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7">
-        <v>34</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="C14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="19">
+        <v>34</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1385,21 +1855,21 @@
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="7">
-        <v>34</v>
-      </c>
-      <c r="G15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="19">
+        <v>34</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1408,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="7">
-        <v>34</v>
-      </c>
-      <c r="G16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="19">
+        <v>34</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1431,21 +1901,21 @@
         <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="7">
-        <v>34</v>
-      </c>
-      <c r="G17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="19">
+        <v>34</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1454,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="7">
-        <v>34</v>
-      </c>
-      <c r="G18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="19">
+        <v>34</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1477,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="7">
-        <v>34</v>
-      </c>
-      <c r="G19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="19">
+        <v>34</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1500,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7">
-        <v>34</v>
-      </c>
-      <c r="G20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="19">
+        <v>34</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1523,21 +1993,21 @@
         <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7">
-        <v>34</v>
-      </c>
-      <c r="G21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="19">
+        <v>34</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1546,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="7">
-        <v>34</v>
-      </c>
-      <c r="G22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="19">
+        <v>34</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1568,22 +2038,22 @@
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>42</v>
+      <c r="B23" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="7">
-        <v>34</v>
-      </c>
-      <c r="G23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="19">
+        <v>34</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1592,21 +2062,21 @@
         <v>0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7">
-        <v>34</v>
-      </c>
-      <c r="G24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="19">
+        <v>34</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1615,26 +2085,366 @@
         <v>0</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="19">
+        <v>34</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="19">
+        <v>34</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="19">
+        <v>34</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="19">
+        <v>34</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="19">
+        <v>34</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A30" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7">
-        <v>34</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>19</v>
+      <c r="E30" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="19">
+        <v>34</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A31" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="19">
+        <v>34</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A32" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="19">
+        <v>34</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A33" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="19">
+        <v>34</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A34" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="19">
+        <v>34</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A35" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="19">
+        <v>34</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A36" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="19">
+        <v>34</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A37" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="19">
+        <v>34</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="36.75" x14ac:dyDescent="1">
+      <c r="A38" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="19">
+        <v>34</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="48" x14ac:dyDescent="1.3">
+      <c r="A39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="4">
+        <v>72</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="48" x14ac:dyDescent="1.3">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="4">
+        <v>72</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="20" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
